--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fukushima/Documents/experiment/育児サークル対応/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E527D1B-BE3A-3F4A-B532-34DA7335B286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9F9B35-C6E1-704B-99A0-977A7E001B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26760" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="36720" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="2" r:id="rId1"/>
@@ -299,40 +299,6 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>参加者の条件で「妊娠」に当てはまるの場合に「○」を記入。E列と同様の値を参照させるため記入禁止</t>
-    <rPh sb="8" eb="10">
-      <t>ニンシン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>キンシ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -1097,6 +1063,40 @@
     </rPh>
     <rPh sb="52" eb="54">
       <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>参加者の条件で「妊娠」に当てはまるの場合に「○」を記入。F列と同様の値を参照させるため記入禁止</t>
+    <rPh sb="8" eb="10">
+      <t>ニンシン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キンシ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -2239,9 +2239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -2416,7 +2414,7 @@
         <v>49</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AZ1" s="4" t="s">
         <v>50</v>
@@ -2434,13 +2432,13 @@
         <v>54</v>
       </c>
       <c r="BE1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BF1" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="BF1" s="17" t="s">
+      <c r="BG1" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="BG1" s="18" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:59" ht="234">
@@ -2463,95 +2461,95 @@
         <v>58</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="AI2" s="8"/>
       <c r="AJ2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AK2" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="AL2" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AM2" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN2" s="8"/>
       <c r="AO2" s="8"/>
@@ -2565,88 +2563,88 @@
       <c r="AW2" s="8"/>
       <c r="AX2" s="8"/>
       <c r="AY2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="BA2" s="6" t="s">
+      <c r="BB2" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="BB2" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="BC2" s="9"/>
       <c r="BD2" s="10"/>
       <c r="BE2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="BF2" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="BF2" s="10" t="s">
+      <c r="BG2" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="BG2" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="39.75" customHeight="1">
       <c r="A3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="C3" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="H3" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="L3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="N3" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T3" s="13"/>
       <c r="U3" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
@@ -2657,92 +2655,92 @@
       <c r="AB3" s="13"/>
       <c r="AC3" s="13"/>
       <c r="AD3" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF3" s="13"/>
       <c r="AG3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH3" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AH3" s="14" t="s">
+      <c r="AI3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB3" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="AI3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="BB3" s="16" t="s">
+      <c r="BC3" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="BC3" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="BD3" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BE3" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BG3" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
